--- a/ControlBook Mensal/clientes/BASE TELCO.xlsx
+++ b/ControlBook Mensal/clientes/BASE TELCO.xlsx
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -32,12 +31,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,12 +63,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,1598 +575,1599 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="3" t="n">
         <v>202302000525</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>07/02/2023 09:27</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="n">
         <v>44984.75972222222</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>ALMIR DE PAIVA</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>## CUSTOMIZAR MONITORAMENTO - MASON-SL##</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">ADICIONAR AO MONITORAMENTO DO ZABBIX, O GATEWAY DE VOZ DA  LOCALIDADE (MASON-SL) CONFORME O GRUPO, MODELO, TEMPLATE E ORGANIZAÇÃO NO GRUPO  DE HOST DO ZABBIX.   </t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>O GATEWAY MASON SÃO LUIS FOI ADICIONADO AO MONITORAMENTO E ESTÁ SENDO MONITORADO COM SUCESSO. NESTE CASO O CHAMADO ESTÁ SENDO ENCERRADO, POIS A SOLICITAÇÃO FOI ATENDIDA</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>13:05:52</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>13:05:52</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="5" t="n">
         <v>202302000550</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>08/02/2023 14:34</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="n">
         <v>44966.59583333333</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="6" t="n">
         <v>44968.60694444444</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIA GIULIA </t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <t>LAUDO EQUIPAMENTOS DE VÍDEO - ACENDE BRASIL</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>BOA TARDE. SOLICITO LAUDO DOS EQUIPAMENTOS: CÂMERA TRIO 8800, ENDPOINT, FONTE E MICROFONE M-880, QUE RETORNARAM DO CLIENTE ACENDE BRASIL.</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>N2 VÍDEO</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>LAUDO TÉCNICO EFETUADO. EQUIPAMENTOS FUNCIONANDO</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>06:41:39</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>06:41:39</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="5" t="n">
         <v>202302000551</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>08/02/2023 14:40</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>08/02/2023 15:12</t>
         </is>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="6" t="n">
         <v>44967.68055555555</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIA GIULIA </t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">LAUDO EQUIPAMENTO </t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>BOA TARDE. SOLICITO LAUDO DO EQUIPAMENTO QUE RETORNOU DO CLIENTE ACENDE BRASIL.TOMBAMENTO: 1933.</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>N2 DADOS</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R4" s="5" t="inlineStr">
         <is>
           <t>FOI CRIADO O LAUDO DO EQUIPAMENTO, CONFORME A SOLCITAÇÃO</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>00:32:31</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>00:32:31</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="W4" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="5" t="n">
         <v>202302000558</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>08/02/2023 18:16</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>08/02/2023 17:25</t>
         </is>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="6" t="n">
         <v>44965.91666666666</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="6" t="n">
         <v>44981.67847222222</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="6" t="n">
         <v>44981.82569444444</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="5" t="inlineStr">
         <is>
           <t>FALHA DE COLETA DA API - VD-VOTORANTIM-SP_SALA01 - POLYSTUDIO-X30 | FALHA DE COLETA DA API EM VD-VOTORANTIM-SP_SALA02 - POLYSTUDIO-X30</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" s="5" t="inlineStr">
         <is>
           <t>VERIFICADO EM NOSSO MONITORAMENTO O ALARME DOS EQUIPAMENTOS ABAIXO COMO FALHA DE COLETA DE API:  VD-VOTORANTIM-SP_SALA01 - POLYSTUDIO-X30HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=59261&amp;EVENTID=381436846 VD-VOTORANTIM-SP_SALA02 - POLYSTUDIO-X30HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=59245&amp;EVENTID=381433461  VD-VOTORANTIM-SP_SALA01 - POLYSTUDIO-X30</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P5" s="5" t="inlineStr">
         <is>
           <t>N2 VÍDEO</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" s="5" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" s="5" t="inlineStr">
         <is>
           <t>COLETA VOLTOU A NORMALIZAR. APÓS AJUSTE NO ZABBIX</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
         <is>
           <t>03:00:00</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>03:00:00</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="W5" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>NOITE</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>04:35:00</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="5" t="n">
         <v>202302000642</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>14/02/2023 16:05</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>14/02/2023 16:05</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>14/02/2023 17:30</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="5" t="inlineStr">
         <is>
           <t>14/02/2023 17:30</t>
         </is>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="6" t="n">
         <v>44973.75902777778</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIA GIULIA </t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>SUPORTE INTERNO</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">TESTE - PONTO DE ENERGIA </t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M6" s="5" t="inlineStr">
         <is>
           <t>BOA TARDE. O PONTO DE ENERGIA DA MESA DE MARCELA NÃO ESTÁ FUNCIONADO, PRECISO QUE TESTE E VERIFIQUE SE ESTÁ SEM ENERGIA.</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" s="5" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P6" s="5" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
         <is>
           <t>VERIFICADO QUE O CONECTOR METÁLICO DO FIO NEGATIVO ESTA DESTRAVANDO DA CAIXA DA TOMADA.RECOMENDAÇÃO É TROCAR AS TOMADAS</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" s="5" t="inlineStr">
         <is>
           <t>01:25:29</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="V6" s="5" t="inlineStr">
         <is>
           <t>01:25:29</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>01:25:00</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="5" t="n">
         <v>202302000644</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>14/02/2023 17:06</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="n">
         <v>44973.60555555556</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="6" t="n">
         <v>44975.63680555556</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>SU</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="5" t="inlineStr">
         <is>
           <t>TOPOLOGIA VEX CAPITAL</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M7" s="5" t="inlineStr">
         <is>
           <t>BOA TARDE PREZADOS! FAVOR FAZER A TOPOLOGIA DO CLIENTE VEX CAPITAL VIDEOCONFERENCIA E CLOUD PBX 16 RAMAIS ( 5 APARELHOS E 11 MOBILITY)1 TRIO DE VIDEOCONFERENCIA</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P7" s="5" t="inlineStr">
         <is>
           <t>N2 DADOS</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
+      <c r="Q7" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R7" s="5" t="inlineStr">
         <is>
           <t>FOI CRIADO O DIAGRAMA PARA ATENDER O PROJETO</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>03:12:49</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr">
         <is>
           <t>03:12:49</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="W7" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X7" s="5" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="5" t="n">
         <v>202302000650</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   TOPOLOGIA/RELATÓRIO/ANÁLISE DE TOIP</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>15/02/2023 12:10</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="n">
         <v>44981.45694444444</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="6" t="n">
         <v>44983.52638888889</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t>SU</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="5" t="inlineStr">
         <is>
           <t>PROJETO TOIP VOTORANTIM</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>BOA TARDE, FAVOR DESENVOLVER TOPOLOGIA E CADERNO DE REQUISITOS DO NOVO PROJETO DE TOIP DA VOTORANTIM. SEGUE ABAIXO O ESCOPO: 01 GW E1 COM CÉLULA DE SOBREVIVÊNCIA;81 APARELHOS TELEFONICOS DE MODELOS DISTINTOS;INTEGRAÇÃO TOIP/TEAMS (O CLIENTE POSSUI O TEAMS NUM SBC PRÓPRIO, IREMOS INTEGRAR ESSE SBC).</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R8" s="5" t="inlineStr">
         <is>
           <t>FOI CRIADO O DIAGRAMA E ENCAMINHADO</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S8" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U8" s="5" t="inlineStr">
         <is>
           <t>08:38:26</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V8" s="5" t="inlineStr">
         <is>
           <t>08:38:26</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X8" s="5" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="5" t="n">
         <v>202302000661</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    BGP INOPERANTE</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>15/02/2023 18:44</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>15/02/2023 18:13</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>15/02/2023 18:58</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="5" t="inlineStr">
         <is>
           <t>15/02/2023 19:55</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" s="5" t="inlineStr">
         <is>
           <t>15/02/2023 19:55</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="5" t="inlineStr">
         <is>
           <t>RTD-ROT-NUC-RCE-C01 - BASETELCO - JADAN CENTER</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M9" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">BGP PEER 187.16.216.253 IS DOWN  </t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O9" s="5" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="P9" s="5" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" s="5" t="inlineStr">
         <is>
           <t>FALHA NA REDE DO FORNECEDOR</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R9" s="5" t="inlineStr">
         <is>
           <t>CONFORME INFORMAÇÃO DA IX.BR HOUVE UMA OSCILAÇÃO NO ROUTER SERVER 1V4 DELES, APÓS NORMALIZADO NEIGHBOR DO BGP FOI RESTABELECIDO EM NOSSO MONITORAMENTO SEM QUEDAS E PERDAS</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T9" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="U9" s="5" t="inlineStr">
         <is>
           <t>01:10:15</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="V9" s="5" t="inlineStr">
         <is>
           <t>01:10:15</t>
         </is>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="5" t="n">
         <v>99819</v>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="X9" s="5" t="inlineStr">
         <is>
           <t>NOITE</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>00:45:00</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="3" t="n">
         <v>202302000730</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    APROVISIONAMENTO DE AMBIENTE/RAMAIS</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>24/02/2023 17:05</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" s="3" t="inlineStr">
         <is>
           <t>SU</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K10" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>CADERNO DE PARÂMETROS ELOPAR</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M10" s="3" t="inlineStr">
         <is>
           <t>BOA TARDE, SEGUE CADERNO DE PARÂMETROS DA ELOPAR PARA APROVISIONAMENTO</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="3" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" s="3" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P10" s="3" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
+      <c r="Q10" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R10" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T10" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U10" s="3" t="inlineStr">
         <is>
           <t>02:17:55</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="V10" s="3" t="inlineStr">
         <is>
           <t>02:17:55</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="W10" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X10" s="5" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="3" t="n">
         <v>202302000735</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>25/02/2023 13:26</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>25/02/2023 12:40</t>
         </is>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="4" t="n">
         <v>44984.27777777778</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="4" t="n">
         <v>44984.47847222222</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="3" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K11" s="3" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="3" t="inlineStr">
         <is>
           <t>VD | TRIO-MV-RECIFE-PRESIDÊNCIA-01 - FALHA DE COLETA DA API EM TRIO-MV-RECIFE-01</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M11" s="3" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=48661&amp;EVENTID=394166755</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="3" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" s="3" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P11" s="3" t="inlineStr">
         <is>
           <t>N1 VÍDEO</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R11" s="3" t="inlineStr">
         <is>
           <t>ALARME NORMALIZOU APÓS NORMALIZAÇÃO DO EQUIPAMENTO</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S11" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T11" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="U11" s="3" t="inlineStr">
         <is>
           <t>02:16:07</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="V11" s="3" t="inlineStr">
         <is>
           <t>02:16:07</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="W11" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3 564</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="X11" s="5" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y11" s="2" t="n">
+      <c r="Y11" s="6" t="n">
         <v>1.75</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="3" t="n">
         <v>202302000751</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>27/02/2023 16:09</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I12" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIA GIULIA </t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K12" s="3" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>LAUDO EQUIPAMENTOS DE VÍDEO</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">BOA TARDE. SOLICITO LAUDO DOS EQUIPAMENTOS DE VÍDEO QUE RETORNARAM DO CLIENTE CYRELA.TOMBAMENTOS: 3189, 3212, 3211, 3187, 3213. </t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" s="3" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O12" s="3" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P12" s="3" t="inlineStr">
         <is>
           <t>N2 VÍDEO</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
+      <c r="Q12" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R12" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S12" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="T12" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="U12" s="3" t="inlineStr">
         <is>
           <t>06:25:37</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="V12" s="3" t="inlineStr">
         <is>
           <t>06:25:37</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="W12" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X12" s="5" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Y12" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="3" t="n">
         <v>202302000752</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>27/02/2023 16:13</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I13" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIA GIULIA </t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K13" s="3" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="3" t="inlineStr">
         <is>
           <t>LAUDO EQUIPAMENTOS DE VÍDEO</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M13" s="3" t="inlineStr">
         <is>
           <t>BOA TARDE. SOLICITO LAUDO DOS EQUIPAMENTOS DE VÍDEO QUE RETORNARAM DO CLIENTE CYRELA.TOMBAMENTOS: 3216, 3617, 3185, 3181 E (ENDPOINT SEM TOMBAMENTO).</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" s="3" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O13" s="3" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="P13" s="3" t="inlineStr">
         <is>
           <t>N2 VÍDEO</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
+      <c r="Q13" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R13" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S13" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="T13" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="U13" s="3" t="inlineStr">
         <is>
           <t>06:21:25</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="V13" s="3" t="inlineStr">
         <is>
           <t>06:21:25</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="W13" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X13" s="5" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Y13" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="3" t="n">
         <v>202302000774</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    APROVISIONAMENTO DE AMBIENTE/RAMAIS</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>28/02/2023 15:09</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I14" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" s="3" t="inlineStr">
         <is>
           <t>SU</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K14" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t>CADERNO DE PARÂMETROS VEX CAPITAL</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="M14" s="3" t="inlineStr">
         <is>
           <t>FAVOR REALIZAR O APROVISIONAMENTO DOS RAMAIS CLOUD PBX DO CLIENTE VEX.</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" s="3" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O14" s="3" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="P14" s="3" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
+      <c r="Q14" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R14" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S14" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="T14" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="U14" s="3" t="inlineStr">
         <is>
           <t>05:59:19</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="V14" s="3" t="inlineStr">
         <is>
           <t>05:59:19</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
+      <c r="W14" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X14" s="5" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Y14" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
+    <row r="15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ControlBook Mensal/clientes/BASE TELCO.xlsx
+++ b/ControlBook Mensal/clientes/BASE TELCO.xlsx
@@ -63,16 +63,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -447,1721 +458,1721 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>202302000525</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>07/02/2023 09:27</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="n">
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="n">
         <v>44984.75972222222</v>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>ALMIR DE PAIVA</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>## CUSTOMIZAR MONITORAMENTO - MASON-SL##</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">ADICIONAR AO MONITORAMENTO DO ZABBIX, O GATEWAY DE VOZ DA  LOCALIDADE (MASON-SL) CONFORME O GRUPO, MODELO, TEMPLATE E ORGANIZAÇÃO NO GRUPO  DE HOST DO ZABBIX.   </t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>O GATEWAY MASON SÃO LUIS FOI ADICIONADO AO MONITORAMENTO E ESTÁ SENDO MONITORADO COM SUCESSO. NESTE CASO O CHAMADO ESTÁ SENDO ENCERRADO, POIS A SOLICITAÇÃO FOI ATENDIDA</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="3" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" s="3" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>13:05:52</t>
         </is>
       </c>
-      <c r="V2" s="3" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>13:05:52</t>
         </is>
       </c>
-      <c r="W2" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X2" s="5" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X2" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
+      <c r="Y2" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="6" t="n">
         <v>202302000550</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 14:34</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H3" s="6" t="n">
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H3" s="7" t="n">
         <v>44966.59583333333</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="7" t="n">
         <v>44968.60694444444</v>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="J3" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIA GIULIA </t>
         </is>
       </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="K3" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L3" s="5" t="inlineStr">
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>LAUDO EQUIPAMENTOS DE VÍDEO - ACENDE BRASIL</t>
         </is>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="M3" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE. SOLICITO LAUDO DOS EQUIPAMENTOS: CÂMERA TRIO 8800, ENDPOINT, FONTE E MICROFONE M-880, QUE RETORNARAM DO CLIENTE ACENDE BRASIL.</t>
         </is>
       </c>
-      <c r="N3" s="5" t="inlineStr">
+      <c r="N3" s="6" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O3" s="5" t="inlineStr">
+      <c r="O3" s="6" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P3" s="5" t="inlineStr">
+      <c r="P3" s="6" t="inlineStr">
         <is>
           <t>N2 VÍDEO</t>
         </is>
       </c>
-      <c r="Q3" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R3" s="5" t="inlineStr">
+      <c r="Q3" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R3" s="6" t="inlineStr">
         <is>
           <t>LAUDO TÉCNICO EFETUADO. EQUIPAMENTOS FUNCIONANDO</t>
         </is>
       </c>
-      <c r="S3" s="5" t="inlineStr">
+      <c r="S3" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T3" s="5" t="inlineStr">
+      <c r="T3" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" s="5" t="inlineStr">
+      <c r="U3" s="6" t="inlineStr">
         <is>
           <t>06:41:39</t>
         </is>
       </c>
-      <c r="V3" s="5" t="inlineStr">
+      <c r="V3" s="6" t="inlineStr">
         <is>
           <t>06:41:39</t>
         </is>
       </c>
-      <c r="W3" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X3" s="5" t="inlineStr">
+      <c r="W3" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X3" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y3" s="5" t="inlineStr">
+      <c r="Y3" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="6" t="n">
         <v>202302000551</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 14:40</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G4" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 15:12</t>
         </is>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="7" t="n">
         <v>44967.68055555555</v>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="J4" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIA GIULIA </t>
         </is>
       </c>
-      <c r="K4" s="5" t="inlineStr">
+      <c r="K4" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L4" s="5" t="inlineStr">
+      <c r="L4" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">LAUDO EQUIPAMENTO </t>
         </is>
       </c>
-      <c r="M4" s="5" t="inlineStr">
+      <c r="M4" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE. SOLICITO LAUDO DO EQUIPAMENTO QUE RETORNOU DO CLIENTE ACENDE BRASIL.TOMBAMENTO: 1933.</t>
         </is>
       </c>
-      <c r="N4" s="5" t="inlineStr">
+      <c r="N4" s="6" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O4" s="5" t="inlineStr">
+      <c r="O4" s="6" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P4" s="5" t="inlineStr">
+      <c r="P4" s="6" t="inlineStr">
         <is>
           <t>N2 DADOS</t>
         </is>
       </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R4" s="5" t="inlineStr">
+      <c r="Q4" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R4" s="6" t="inlineStr">
         <is>
           <t>FOI CRIADO O LAUDO DO EQUIPAMENTO, CONFORME A SOLCITAÇÃO</t>
         </is>
       </c>
-      <c r="S4" s="5" t="inlineStr">
+      <c r="S4" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" s="5" t="inlineStr">
+      <c r="T4" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U4" s="5" t="inlineStr">
+      <c r="U4" s="6" t="inlineStr">
         <is>
           <t>00:32:31</t>
         </is>
       </c>
-      <c r="V4" s="5" t="inlineStr">
+      <c r="V4" s="6" t="inlineStr">
         <is>
           <t>00:32:31</t>
         </is>
       </c>
-      <c r="W4" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X4" s="5" t="inlineStr">
+      <c r="W4" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X4" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y4" s="5" t="inlineStr">
+      <c r="Y4" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="6" t="n">
         <v>202302000558</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 18:16</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 17:25</t>
         </is>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>44965.91666666666</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>44981.67847222222</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="7" t="n">
         <v>44981.82569444444</v>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="J5" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K5" s="5" t="inlineStr">
+      <c r="K5" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L5" s="5" t="inlineStr">
+      <c r="L5" s="6" t="inlineStr">
         <is>
           <t>FALHA DE COLETA DA API - VD-VOTORANTIM-SP_SALA01 - POLYSTUDIO-X30 | FALHA DE COLETA DA API EM VD-VOTORANTIM-SP_SALA02 - POLYSTUDIO-X30</t>
         </is>
       </c>
-      <c r="M5" s="5" t="inlineStr">
+      <c r="M5" s="6" t="inlineStr">
         <is>
           <t>VERIFICADO EM NOSSO MONITORAMENTO O ALARME DOS EQUIPAMENTOS ABAIXO COMO FALHA DE COLETA DE API:  VD-VOTORANTIM-SP_SALA01 - POLYSTUDIO-X30HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=59261&amp;EVENTID=381436846 VD-VOTORANTIM-SP_SALA02 - POLYSTUDIO-X30HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=59245&amp;EVENTID=381433461  VD-VOTORANTIM-SP_SALA01 - POLYSTUDIO-X30</t>
         </is>
       </c>
-      <c r="N5" s="5" t="inlineStr">
+      <c r="N5" s="6" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O5" s="5" t="inlineStr">
+      <c r="O5" s="6" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P5" s="5" t="inlineStr">
+      <c r="P5" s="6" t="inlineStr">
         <is>
           <t>N2 VÍDEO</t>
         </is>
       </c>
-      <c r="Q5" s="5" t="inlineStr">
+      <c r="Q5" s="6" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO</t>
         </is>
       </c>
-      <c r="R5" s="5" t="inlineStr">
+      <c r="R5" s="6" t="inlineStr">
         <is>
           <t>COLETA VOLTOU A NORMALIZAR. APÓS AJUSTE NO ZABBIX</t>
         </is>
       </c>
-      <c r="S5" s="5" t="inlineStr">
+      <c r="S5" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" s="5" t="inlineStr">
+      <c r="T5" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" s="5" t="inlineStr">
+      <c r="U5" s="6" t="inlineStr">
         <is>
           <t>03:00:00</t>
         </is>
       </c>
-      <c r="V5" s="5" t="inlineStr">
+      <c r="V5" s="6" t="inlineStr">
         <is>
           <t>03:00:00</t>
         </is>
       </c>
-      <c r="W5" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X5" s="5" t="inlineStr">
+      <c r="W5" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X5" s="6" t="inlineStr">
         <is>
           <t>NOITE</t>
         </is>
       </c>
-      <c r="Y5" s="5" t="inlineStr">
+      <c r="Y5" s="6" t="inlineStr">
         <is>
           <t>04:35:00</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="6" t="n">
         <v>202302000642</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>14/02/2023 16:05</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>14/02/2023 16:05</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="G6" s="6" t="inlineStr">
         <is>
           <t>14/02/2023 17:30</t>
         </is>
       </c>
-      <c r="H6" s="5" t="inlineStr">
+      <c r="H6" s="6" t="inlineStr">
         <is>
           <t>14/02/2023 17:30</t>
         </is>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="7" t="n">
         <v>44973.75902777778</v>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="J6" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIA GIULIA </t>
         </is>
       </c>
-      <c r="K6" s="5" t="inlineStr">
+      <c r="K6" s="6" t="inlineStr">
         <is>
           <t>SUPORTE INTERNO</t>
         </is>
       </c>
-      <c r="L6" s="5" t="inlineStr">
+      <c r="L6" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">TESTE - PONTO DE ENERGIA </t>
         </is>
       </c>
-      <c r="M6" s="5" t="inlineStr">
+      <c r="M6" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE. O PONTO DE ENERGIA DA MESA DE MARCELA NÃO ESTÁ FUNCIONADO, PRECISO QUE TESTE E VERIFIQUE SE ESTÁ SEM ENERGIA.</t>
         </is>
       </c>
-      <c r="N6" s="5" t="inlineStr">
+      <c r="N6" s="6" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O6" s="5" t="inlineStr">
+      <c r="O6" s="6" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P6" s="5" t="inlineStr">
+      <c r="P6" s="6" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q6" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R6" s="5" t="inlineStr">
+      <c r="Q6" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R6" s="6" t="inlineStr">
         <is>
           <t>VERIFICADO QUE O CONECTOR METÁLICO DO FIO NEGATIVO ESTA DESTRAVANDO DA CAIXA DA TOMADA.RECOMENDAÇÃO É TROCAR AS TOMADAS</t>
         </is>
       </c>
-      <c r="S6" s="5" t="inlineStr">
+      <c r="S6" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" s="5" t="inlineStr">
+      <c r="T6" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U6" s="5" t="inlineStr">
+      <c r="U6" s="6" t="inlineStr">
         <is>
           <t>01:25:29</t>
         </is>
       </c>
-      <c r="V6" s="5" t="inlineStr">
+      <c r="V6" s="6" t="inlineStr">
         <is>
           <t>01:25:29</t>
         </is>
       </c>
-      <c r="W6" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X6" s="5" t="inlineStr">
+      <c r="W6" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X6" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="Y6" s="6" t="inlineStr">
         <is>
           <t>01:25:00</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="6" t="n">
         <v>202302000644</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>14/02/2023 17:06</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="n">
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" s="7" t="n">
         <v>44973.60555555556</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="7" t="n">
         <v>44975.63680555556</v>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="J7" s="6" t="inlineStr">
         <is>
           <t>SU</t>
         </is>
       </c>
-      <c r="K7" s="5" t="inlineStr">
+      <c r="K7" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L7" s="5" t="inlineStr">
+      <c r="L7" s="6" t="inlineStr">
         <is>
           <t>TOPOLOGIA VEX CAPITAL</t>
         </is>
       </c>
-      <c r="M7" s="5" t="inlineStr">
+      <c r="M7" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE PREZADOS! FAVOR FAZER A TOPOLOGIA DO CLIENTE VEX CAPITAL VIDEOCONFERENCIA E CLOUD PBX 16 RAMAIS ( 5 APARELHOS E 11 MOBILITY)1 TRIO DE VIDEOCONFERENCIA</t>
         </is>
       </c>
-      <c r="N7" s="5" t="inlineStr">
+      <c r="N7" s="6" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O7" s="5" t="inlineStr">
+      <c r="O7" s="6" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P7" s="5" t="inlineStr">
+      <c r="P7" s="6" t="inlineStr">
         <is>
           <t>N2 DADOS</t>
         </is>
       </c>
-      <c r="Q7" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R7" s="5" t="inlineStr">
+      <c r="Q7" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R7" s="6" t="inlineStr">
         <is>
           <t>FOI CRIADO O DIAGRAMA PARA ATENDER O PROJETO</t>
         </is>
       </c>
-      <c r="S7" s="5" t="inlineStr">
+      <c r="S7" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T7" s="5" t="inlineStr">
+      <c r="T7" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" s="5" t="inlineStr">
+      <c r="U7" s="6" t="inlineStr">
         <is>
           <t>03:12:49</t>
         </is>
       </c>
-      <c r="V7" s="5" t="inlineStr">
+      <c r="V7" s="6" t="inlineStr">
         <is>
           <t>03:12:49</t>
         </is>
       </c>
-      <c r="W7" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X7" s="5" t="inlineStr">
+      <c r="W7" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X7" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y7" s="5" t="inlineStr">
+      <c r="Y7" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="6" t="n">
         <v>202302000650</v>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">   TOPOLOGIA/RELATÓRIO/ANÁLISE DE TOIP</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>15/02/2023 12:10</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G8" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="n">
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="n">
         <v>44981.45694444444</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="7" t="n">
         <v>44983.52638888889</v>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="J8" s="6" t="inlineStr">
         <is>
           <t>SU</t>
         </is>
       </c>
-      <c r="K8" s="5" t="inlineStr">
+      <c r="K8" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L8" s="5" t="inlineStr">
+      <c r="L8" s="6" t="inlineStr">
         <is>
           <t>PROJETO TOIP VOTORANTIM</t>
         </is>
       </c>
-      <c r="M8" s="5" t="inlineStr">
+      <c r="M8" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE, FAVOR DESENVOLVER TOPOLOGIA E CADERNO DE REQUISITOS DO NOVO PROJETO DE TOIP DA VOTORANTIM. SEGUE ABAIXO O ESCOPO: 01 GW E1 COM CÉLULA DE SOBREVIVÊNCIA;81 APARELHOS TELEFONICOS DE MODELOS DISTINTOS;INTEGRAÇÃO TOIP/TEAMS (O CLIENTE POSSUI O TEAMS NUM SBC PRÓPRIO, IREMOS INTEGRAR ESSE SBC).</t>
         </is>
       </c>
-      <c r="N8" s="5" t="inlineStr">
+      <c r="N8" s="6" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O8" s="5" t="inlineStr">
+      <c r="O8" s="6" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P8" s="5" t="inlineStr">
+      <c r="P8" s="6" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R8" s="5" t="inlineStr">
+      <c r="Q8" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R8" s="6" t="inlineStr">
         <is>
           <t>FOI CRIADO O DIAGRAMA E ENCAMINHADO</t>
         </is>
       </c>
-      <c r="S8" s="5" t="inlineStr">
+      <c r="S8" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T8" s="5" t="inlineStr">
+      <c r="T8" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U8" s="5" t="inlineStr">
+      <c r="U8" s="6" t="inlineStr">
         <is>
           <t>08:38:26</t>
         </is>
       </c>
-      <c r="V8" s="5" t="inlineStr">
+      <c r="V8" s="6" t="inlineStr">
         <is>
           <t>08:38:26</t>
         </is>
       </c>
-      <c r="W8" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X8" s="5" t="inlineStr">
+      <c r="W8" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X8" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y8" s="5" t="inlineStr">
+      <c r="Y8" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="6" t="n">
         <v>202302000661</v>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    BGP INOPERANTE</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>15/02/2023 18:44</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="F9" s="6" t="inlineStr">
         <is>
           <t>15/02/2023 18:13</t>
         </is>
       </c>
-      <c r="G9" s="5" t="inlineStr">
+      <c r="G9" s="6" t="inlineStr">
         <is>
           <t>15/02/2023 18:58</t>
         </is>
       </c>
-      <c r="H9" s="5" t="inlineStr">
+      <c r="H9" s="6" t="inlineStr">
         <is>
           <t>15/02/2023 19:55</t>
         </is>
       </c>
-      <c r="I9" s="5" t="inlineStr">
+      <c r="I9" s="6" t="inlineStr">
         <is>
           <t>15/02/2023 19:55</t>
         </is>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="J9" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K9" s="5" t="inlineStr">
+      <c r="K9" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L9" s="5" t="inlineStr">
+      <c r="L9" s="6" t="inlineStr">
         <is>
           <t>RTD-ROT-NUC-RCE-C01 - BASETELCO - JADAN CENTER</t>
         </is>
       </c>
-      <c r="M9" s="5" t="inlineStr">
+      <c r="M9" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">BGP PEER 187.16.216.253 IS DOWN  </t>
         </is>
       </c>
-      <c r="N9" s="5" t="inlineStr">
+      <c r="N9" s="6" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O9" s="5" t="inlineStr">
+      <c r="O9" s="6" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P9" s="5" t="inlineStr">
+      <c r="P9" s="6" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q9" s="5" t="inlineStr">
+      <c r="Q9" s="6" t="inlineStr">
         <is>
           <t>FALHA NA REDE DO FORNECEDOR</t>
         </is>
       </c>
-      <c r="R9" s="5" t="inlineStr">
+      <c r="R9" s="6" t="inlineStr">
         <is>
           <t>CONFORME INFORMAÇÃO DA IX.BR HOUVE UMA OSCILAÇÃO NO ROUTER SERVER 1V4 DELES, APÓS NORMALIZADO NEIGHBOR DO BGP FOI RESTABELECIDO EM NOSSO MONITORAMENTO SEM QUEDAS E PERDAS</t>
         </is>
       </c>
-      <c r="S9" s="5" t="inlineStr">
+      <c r="S9" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T9" s="5" t="inlineStr">
+      <c r="T9" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U9" s="5" t="inlineStr">
+      <c r="U9" s="6" t="inlineStr">
         <is>
           <t>01:10:15</t>
         </is>
       </c>
-      <c r="V9" s="5" t="inlineStr">
+      <c r="V9" s="6" t="inlineStr">
         <is>
           <t>01:10:15</t>
         </is>
       </c>
-      <c r="W9" s="5" t="n">
+      <c r="W9" s="6" t="n">
         <v>99819</v>
       </c>
-      <c r="X9" s="5" t="inlineStr">
+      <c r="X9" s="6" t="inlineStr">
         <is>
           <t>NOITE</t>
         </is>
       </c>
-      <c r="Y9" s="5" t="inlineStr">
+      <c r="Y9" s="6" t="inlineStr">
         <is>
           <t>00:45:00</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>202302000730</v>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    APROVISIONAMENTO DE AMBIENTE/RAMAIS</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>24/02/2023 17:05</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I10" s="3" t="inlineStr">
+      <c r="I10" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J10" s="3" t="inlineStr">
+      <c r="J10" s="4" t="inlineStr">
         <is>
           <t>SU</t>
         </is>
       </c>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="K10" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L10" s="3" t="inlineStr">
+      <c r="L10" s="4" t="inlineStr">
         <is>
           <t>CADERNO DE PARÂMETROS ELOPAR</t>
         </is>
       </c>
-      <c r="M10" s="3" t="inlineStr">
+      <c r="M10" s="4" t="inlineStr">
         <is>
           <t>BOA TARDE, SEGUE CADERNO DE PARÂMETROS DA ELOPAR PARA APROVISIONAMENTO</t>
         </is>
       </c>
-      <c r="N10" s="3" t="inlineStr">
+      <c r="N10" s="4" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O10" s="3" t="inlineStr">
+      <c r="O10" s="4" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P10" s="3" t="inlineStr">
+      <c r="P10" s="4" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q10" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R10" s="3" t="inlineStr">
+      <c r="Q10" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R10" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S10" s="3" t="inlineStr">
+      <c r="S10" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T10" s="3" t="inlineStr">
+      <c r="T10" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U10" s="3" t="inlineStr">
+      <c r="U10" s="4" t="inlineStr">
         <is>
           <t>02:17:55</t>
         </is>
       </c>
-      <c r="V10" s="3" t="inlineStr">
+      <c r="V10" s="4" t="inlineStr">
         <is>
           <t>02:17:55</t>
         </is>
       </c>
-      <c r="W10" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X10" s="5" t="inlineStr">
+      <c r="W10" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X10" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y10" s="5" t="inlineStr">
+      <c r="Y10" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>202302000735</v>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>25/02/2023 13:26</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>25/02/2023 12:40</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <v>44984.27777777778</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="5" t="n">
         <v>44984.47847222222</v>
       </c>
-      <c r="I11" s="3" t="inlineStr">
+      <c r="I11" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J11" s="3" t="inlineStr">
+      <c r="J11" s="4" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K11" s="3" t="inlineStr">
+      <c r="K11" s="4" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L11" s="3" t="inlineStr">
+      <c r="L11" s="4" t="inlineStr">
         <is>
           <t>VD | TRIO-MV-RECIFE-PRESIDÊNCIA-01 - FALHA DE COLETA DA API EM TRIO-MV-RECIFE-01</t>
         </is>
       </c>
-      <c r="M11" s="3" t="inlineStr">
+      <c r="M11" s="4" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=48661&amp;EVENTID=394166755</t>
         </is>
       </c>
-      <c r="N11" s="3" t="inlineStr">
+      <c r="N11" s="4" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O11" s="3" t="inlineStr">
+      <c r="O11" s="4" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P11" s="3" t="inlineStr">
+      <c r="P11" s="4" t="inlineStr">
         <is>
           <t>N1 VÍDEO</t>
         </is>
       </c>
-      <c r="Q11" s="3" t="inlineStr">
+      <c r="Q11" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R11" s="3" t="inlineStr">
+      <c r="R11" s="4" t="inlineStr">
         <is>
           <t>ALARME NORMALIZOU APÓS NORMALIZAÇÃO DO EQUIPAMENTO</t>
         </is>
       </c>
-      <c r="S11" s="3" t="inlineStr">
+      <c r="S11" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T11" s="3" t="inlineStr">
+      <c r="T11" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U11" s="3" t="inlineStr">
+      <c r="U11" s="4" t="inlineStr">
         <is>
           <t>02:16:07</t>
         </is>
       </c>
-      <c r="V11" s="3" t="inlineStr">
+      <c r="V11" s="4" t="inlineStr">
         <is>
           <t>02:16:07</t>
         </is>
       </c>
-      <c r="W11" s="3" t="inlineStr">
+      <c r="W11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3 564</t>
         </is>
       </c>
-      <c r="X11" s="5" t="inlineStr">
+      <c r="X11" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y11" s="6" t="n">
+      <c r="Y11" s="7" t="n">
         <v>1.75</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>202302000751</v>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>27/02/2023 16:09</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I12" s="3" t="inlineStr">
+      <c r="I12" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J12" s="3" t="inlineStr">
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIA GIULIA </t>
         </is>
       </c>
-      <c r="K12" s="3" t="inlineStr">
+      <c r="K12" s="4" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L12" s="3" t="inlineStr">
+      <c r="L12" s="4" t="inlineStr">
         <is>
           <t>LAUDO EQUIPAMENTOS DE VÍDEO</t>
         </is>
       </c>
-      <c r="M12" s="3" t="inlineStr">
+      <c r="M12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">BOA TARDE. SOLICITO LAUDO DOS EQUIPAMENTOS DE VÍDEO QUE RETORNARAM DO CLIENTE CYRELA.TOMBAMENTOS: 3189, 3212, 3211, 3187, 3213. </t>
         </is>
       </c>
-      <c r="N12" s="3" t="inlineStr">
+      <c r="N12" s="4" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O12" s="3" t="inlineStr">
+      <c r="O12" s="4" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P12" s="3" t="inlineStr">
+      <c r="P12" s="4" t="inlineStr">
         <is>
           <t>N2 VÍDEO</t>
         </is>
       </c>
-      <c r="Q12" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R12" s="3" t="inlineStr">
+      <c r="Q12" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R12" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S12" s="3" t="inlineStr">
+      <c r="S12" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T12" s="3" t="inlineStr">
+      <c r="T12" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U12" s="3" t="inlineStr">
+      <c r="U12" s="4" t="inlineStr">
         <is>
           <t>06:25:37</t>
         </is>
       </c>
-      <c r="V12" s="3" t="inlineStr">
+      <c r="V12" s="4" t="inlineStr">
         <is>
           <t>06:25:37</t>
         </is>
       </c>
-      <c r="W12" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X12" s="5" t="inlineStr">
+      <c r="W12" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X12" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y12" s="5" t="inlineStr">
+      <c r="Y12" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>202302000752</v>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>27/02/2023 16:13</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I13" s="3" t="inlineStr">
+      <c r="I13" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J13" s="3" t="inlineStr">
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIA GIULIA </t>
         </is>
       </c>
-      <c r="K13" s="3" t="inlineStr">
+      <c r="K13" s="4" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L13" s="3" t="inlineStr">
+      <c r="L13" s="4" t="inlineStr">
         <is>
           <t>LAUDO EQUIPAMENTOS DE VÍDEO</t>
         </is>
       </c>
-      <c r="M13" s="3" t="inlineStr">
+      <c r="M13" s="4" t="inlineStr">
         <is>
           <t>BOA TARDE. SOLICITO LAUDO DOS EQUIPAMENTOS DE VÍDEO QUE RETORNARAM DO CLIENTE CYRELA.TOMBAMENTOS: 3216, 3617, 3185, 3181 E (ENDPOINT SEM TOMBAMENTO).</t>
         </is>
       </c>
-      <c r="N13" s="3" t="inlineStr">
+      <c r="N13" s="4" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O13" s="3" t="inlineStr">
+      <c r="O13" s="4" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P13" s="3" t="inlineStr">
+      <c r="P13" s="4" t="inlineStr">
         <is>
           <t>N2 VÍDEO</t>
         </is>
       </c>
-      <c r="Q13" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R13" s="3" t="inlineStr">
+      <c r="Q13" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R13" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S13" s="3" t="inlineStr">
+      <c r="S13" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T13" s="3" t="inlineStr">
+      <c r="T13" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U13" s="3" t="inlineStr">
+      <c r="U13" s="4" t="inlineStr">
         <is>
           <t>06:21:25</t>
         </is>
       </c>
-      <c r="V13" s="3" t="inlineStr">
+      <c r="V13" s="4" t="inlineStr">
         <is>
           <t>06:21:25</t>
         </is>
       </c>
-      <c r="W13" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X13" s="5" t="inlineStr">
+      <c r="W13" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X13" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y13" s="5" t="inlineStr">
+      <c r="Y13" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="4" t="n">
         <v>202302000774</v>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    APROVISIONAMENTO DE AMBIENTE/RAMAIS</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>28/02/2023 15:09</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I14" s="3" t="inlineStr">
+      <c r="I14" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J14" s="3" t="inlineStr">
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>SU</t>
         </is>
       </c>
-      <c r="K14" s="3" t="inlineStr">
+      <c r="K14" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L14" s="3" t="inlineStr">
+      <c r="L14" s="4" t="inlineStr">
         <is>
           <t>CADERNO DE PARÂMETROS VEX CAPITAL</t>
         </is>
       </c>
-      <c r="M14" s="3" t="inlineStr">
+      <c r="M14" s="4" t="inlineStr">
         <is>
           <t>FAVOR REALIZAR O APROVISIONAMENTO DOS RAMAIS CLOUD PBX DO CLIENTE VEX.</t>
         </is>
       </c>
-      <c r="N14" s="3" t="inlineStr">
+      <c r="N14" s="4" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O14" s="3" t="inlineStr">
+      <c r="O14" s="4" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P14" s="3" t="inlineStr">
+      <c r="P14" s="4" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q14" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R14" s="3" t="inlineStr">
+      <c r="Q14" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R14" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S14" s="3" t="inlineStr">
+      <c r="S14" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T14" s="3" t="inlineStr">
+      <c r="T14" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U14" s="3" t="inlineStr">
+      <c r="U14" s="4" t="inlineStr">
         <is>
           <t>05:59:19</t>
         </is>
       </c>
-      <c r="V14" s="3" t="inlineStr">
+      <c r="V14" s="4" t="inlineStr">
         <is>
           <t>05:59:19</t>
         </is>
       </c>
-      <c r="W14" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X14" s="5" t="inlineStr">
+      <c r="W14" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X14" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y14" s="5" t="inlineStr">
+      <c r="Y14" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>

--- a/ControlBook Mensal/clientes/BASE TELCO.xlsx
+++ b/ControlBook Mensal/clientes/BASE TELCO.xlsx
@@ -63,13 +63,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -79,6 +85,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -463,1716 +472,1716 @@
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Q1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="S1" s="4" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="T1" s="4" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="U1" s="4" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="V1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="W1" s="4" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="X1" s="4" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Y1" s="4" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="5" t="n">
         <v>202302000525</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>07/02/2023 09:27</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H2" s="5" t="n">
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="n">
         <v>44984.75972222222</v>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="6" t="inlineStr">
         <is>
           <t>ALMIR DE PAIVA</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="K2" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="L2" s="6" t="inlineStr">
         <is>
           <t>## CUSTOMIZAR MONITORAMENTO - MASON-SL##</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">ADICIONAR AO MONITORAMENTO DO ZABBIX, O GATEWAY DE VOZ DA  LOCALIDADE (MASON-SL) CONFORME O GRUPO, MODELO, TEMPLATE E ORGANIZAÇÃO NO GRUPO  DE HOST DO ZABBIX.   </t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="N2" s="6" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="O2" s="6" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="P2" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="Q2" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R2" s="6" t="inlineStr">
         <is>
           <t>O GATEWAY MASON SÃO LUIS FOI ADICIONADO AO MONITORAMENTO E ESTÁ SENDO MONITORADO COM SUCESSO. NESTE CASO O CHAMADO ESTÁ SENDO ENCERRADO, POIS A SOLICITAÇÃO FOI ATENDIDA</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="S2" s="6" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="T2" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="6" t="inlineStr">
         <is>
           <t>13:05:52</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="V2" s="6" t="inlineStr">
         <is>
           <t>13:05:52</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X2" s="6" t="inlineStr">
+      <c r="W2" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X2" s="8" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y2" s="6" t="inlineStr">
+      <c r="Y2" s="8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="9" t="n">
         <v>202302000550</v>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
+      <c r="D3" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E3" s="6" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>08/02/2023 14:34</t>
         </is>
       </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H3" s="7" t="n">
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H3" s="10" t="n">
         <v>44966.59583333333</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="10" t="n">
         <v>44968.60694444444</v>
       </c>
-      <c r="J3" s="6" t="inlineStr">
+      <c r="J3" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIA GIULIA </t>
         </is>
       </c>
-      <c r="K3" s="6" t="inlineStr">
+      <c r="K3" s="8" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L3" s="6" t="inlineStr">
+      <c r="L3" s="8" t="inlineStr">
         <is>
           <t>LAUDO EQUIPAMENTOS DE VÍDEO - ACENDE BRASIL</t>
         </is>
       </c>
-      <c r="M3" s="6" t="inlineStr">
+      <c r="M3" s="8" t="inlineStr">
         <is>
           <t>BOA TARDE. SOLICITO LAUDO DOS EQUIPAMENTOS: CÂMERA TRIO 8800, ENDPOINT, FONTE E MICROFONE M-880, QUE RETORNARAM DO CLIENTE ACENDE BRASIL.</t>
         </is>
       </c>
-      <c r="N3" s="6" t="inlineStr">
+      <c r="N3" s="8" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O3" s="6" t="inlineStr">
+      <c r="O3" s="8" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P3" s="6" t="inlineStr">
+      <c r="P3" s="8" t="inlineStr">
         <is>
           <t>N2 VÍDEO</t>
         </is>
       </c>
-      <c r="Q3" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R3" s="6" t="inlineStr">
+      <c r="Q3" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R3" s="8" t="inlineStr">
         <is>
           <t>LAUDO TÉCNICO EFETUADO. EQUIPAMENTOS FUNCIONANDO</t>
         </is>
       </c>
-      <c r="S3" s="6" t="inlineStr">
+      <c r="S3" s="8" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T3" s="6" t="inlineStr">
+      <c r="T3" s="8" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" s="6" t="inlineStr">
+      <c r="U3" s="8" t="inlineStr">
         <is>
           <t>06:41:39</t>
         </is>
       </c>
-      <c r="V3" s="6" t="inlineStr">
+      <c r="V3" s="8" t="inlineStr">
         <is>
           <t>06:41:39</t>
         </is>
       </c>
-      <c r="W3" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X3" s="6" t="inlineStr">
+      <c r="W3" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X3" s="8" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y3" s="6" t="inlineStr">
+      <c r="Y3" s="8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="9" t="n">
         <v>202302000551</v>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
+      <c r="E4" s="8" t="inlineStr">
         <is>
           <t>08/02/2023 14:40</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="inlineStr">
         <is>
           <t>08/02/2023 15:12</t>
         </is>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="10" t="n">
         <v>44967.68055555555</v>
       </c>
-      <c r="J4" s="6" t="inlineStr">
+      <c r="J4" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIA GIULIA </t>
         </is>
       </c>
-      <c r="K4" s="6" t="inlineStr">
+      <c r="K4" s="8" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L4" s="6" t="inlineStr">
+      <c r="L4" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">LAUDO EQUIPAMENTO </t>
         </is>
       </c>
-      <c r="M4" s="6" t="inlineStr">
+      <c r="M4" s="8" t="inlineStr">
         <is>
           <t>BOA TARDE. SOLICITO LAUDO DO EQUIPAMENTO QUE RETORNOU DO CLIENTE ACENDE BRASIL.TOMBAMENTO: 1933.</t>
         </is>
       </c>
-      <c r="N4" s="6" t="inlineStr">
+      <c r="N4" s="8" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O4" s="6" t="inlineStr">
+      <c r="O4" s="8" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P4" s="6" t="inlineStr">
+      <c r="P4" s="8" t="inlineStr">
         <is>
           <t>N2 DADOS</t>
         </is>
       </c>
-      <c r="Q4" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R4" s="6" t="inlineStr">
+      <c r="Q4" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R4" s="8" t="inlineStr">
         <is>
           <t>FOI CRIADO O LAUDO DO EQUIPAMENTO, CONFORME A SOLCITAÇÃO</t>
         </is>
       </c>
-      <c r="S4" s="6" t="inlineStr">
+      <c r="S4" s="8" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" s="6" t="inlineStr">
+      <c r="T4" s="8" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U4" s="6" t="inlineStr">
+      <c r="U4" s="8" t="inlineStr">
         <is>
           <t>00:32:31</t>
         </is>
       </c>
-      <c r="V4" s="6" t="inlineStr">
+      <c r="V4" s="8" t="inlineStr">
         <is>
           <t>00:32:31</t>
         </is>
       </c>
-      <c r="W4" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X4" s="6" t="inlineStr">
+      <c r="W4" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X4" s="8" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y4" s="6" t="inlineStr">
+      <c r="Y4" s="8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="9" t="n">
         <v>202302000558</v>
       </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr">
         <is>
           <t>08/02/2023 18:16</t>
         </is>
       </c>
-      <c r="F5" s="6" t="inlineStr">
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>08/02/2023 17:25</t>
         </is>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="10" t="n">
         <v>44965.91666666666</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="H5" s="10" t="n">
         <v>44981.67847222222</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="10" t="n">
         <v>44981.82569444444</v>
       </c>
-      <c r="J5" s="6" t="inlineStr">
+      <c r="J5" s="8" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K5" s="6" t="inlineStr">
+      <c r="K5" s="8" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L5" s="6" t="inlineStr">
+      <c r="L5" s="8" t="inlineStr">
         <is>
           <t>FALHA DE COLETA DA API - VD-VOTORANTIM-SP_SALA01 - POLYSTUDIO-X30 | FALHA DE COLETA DA API EM VD-VOTORANTIM-SP_SALA02 - POLYSTUDIO-X30</t>
         </is>
       </c>
-      <c r="M5" s="6" t="inlineStr">
+      <c r="M5" s="8" t="inlineStr">
         <is>
           <t>VERIFICADO EM NOSSO MONITORAMENTO O ALARME DOS EQUIPAMENTOS ABAIXO COMO FALHA DE COLETA DE API:  VD-VOTORANTIM-SP_SALA01 - POLYSTUDIO-X30HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=59261&amp;EVENTID=381436846 VD-VOTORANTIM-SP_SALA02 - POLYSTUDIO-X30HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=59245&amp;EVENTID=381433461  VD-VOTORANTIM-SP_SALA01 - POLYSTUDIO-X30</t>
         </is>
       </c>
-      <c r="N5" s="6" t="inlineStr">
+      <c r="N5" s="8" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O5" s="6" t="inlineStr">
+      <c r="O5" s="8" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P5" s="6" t="inlineStr">
+      <c r="P5" s="8" t="inlineStr">
         <is>
           <t>N2 VÍDEO</t>
         </is>
       </c>
-      <c r="Q5" s="6" t="inlineStr">
+      <c r="Q5" s="8" t="inlineStr">
         <is>
           <t>CONFIGURAÇÃO</t>
         </is>
       </c>
-      <c r="R5" s="6" t="inlineStr">
+      <c r="R5" s="8" t="inlineStr">
         <is>
           <t>COLETA VOLTOU A NORMALIZAR. APÓS AJUSTE NO ZABBIX</t>
         </is>
       </c>
-      <c r="S5" s="6" t="inlineStr">
+      <c r="S5" s="8" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" s="6" t="inlineStr">
+      <c r="T5" s="8" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" s="6" t="inlineStr">
+      <c r="U5" s="8" t="inlineStr">
         <is>
           <t>03:00:00</t>
         </is>
       </c>
-      <c r="V5" s="6" t="inlineStr">
+      <c r="V5" s="8" t="inlineStr">
         <is>
           <t>03:00:00</t>
         </is>
       </c>
-      <c r="W5" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X5" s="6" t="inlineStr">
+      <c r="W5" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X5" s="8" t="inlineStr">
         <is>
           <t>NOITE</t>
         </is>
       </c>
-      <c r="Y5" s="6" t="inlineStr">
+      <c r="Y5" s="8" t="inlineStr">
         <is>
           <t>04:35:00</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="9" t="n">
         <v>202302000642</v>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="8" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="D6" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="E6" s="8" t="inlineStr">
         <is>
           <t>14/02/2023 16:05</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>14/02/2023 16:05</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="G6" s="8" t="inlineStr">
         <is>
           <t>14/02/2023 17:30</t>
         </is>
       </c>
-      <c r="H6" s="6" t="inlineStr">
+      <c r="H6" s="8" t="inlineStr">
         <is>
           <t>14/02/2023 17:30</t>
         </is>
       </c>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="10" t="n">
         <v>44973.75902777778</v>
       </c>
-      <c r="J6" s="6" t="inlineStr">
+      <c r="J6" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIA GIULIA </t>
         </is>
       </c>
-      <c r="K6" s="6" t="inlineStr">
+      <c r="K6" s="8" t="inlineStr">
         <is>
           <t>SUPORTE INTERNO</t>
         </is>
       </c>
-      <c r="L6" s="6" t="inlineStr">
+      <c r="L6" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">TESTE - PONTO DE ENERGIA </t>
         </is>
       </c>
-      <c r="M6" s="6" t="inlineStr">
+      <c r="M6" s="8" t="inlineStr">
         <is>
           <t>BOA TARDE. O PONTO DE ENERGIA DA MESA DE MARCELA NÃO ESTÁ FUNCIONADO, PRECISO QUE TESTE E VERIFIQUE SE ESTÁ SEM ENERGIA.</t>
         </is>
       </c>
-      <c r="N6" s="6" t="inlineStr">
+      <c r="N6" s="8" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O6" s="6" t="inlineStr">
+      <c r="O6" s="8" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P6" s="6" t="inlineStr">
+      <c r="P6" s="8" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q6" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R6" s="6" t="inlineStr">
+      <c r="Q6" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R6" s="8" t="inlineStr">
         <is>
           <t>VERIFICADO QUE O CONECTOR METÁLICO DO FIO NEGATIVO ESTA DESTRAVANDO DA CAIXA DA TOMADA.RECOMENDAÇÃO É TROCAR AS TOMADAS</t>
         </is>
       </c>
-      <c r="S6" s="6" t="inlineStr">
+      <c r="S6" s="8" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" s="6" t="inlineStr">
+      <c r="T6" s="8" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U6" s="6" t="inlineStr">
+      <c r="U6" s="8" t="inlineStr">
         <is>
           <t>01:25:29</t>
         </is>
       </c>
-      <c r="V6" s="6" t="inlineStr">
+      <c r="V6" s="8" t="inlineStr">
         <is>
           <t>01:25:29</t>
         </is>
       </c>
-      <c r="W6" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X6" s="6" t="inlineStr">
+      <c r="W6" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X6" s="8" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y6" s="6" t="inlineStr">
+      <c r="Y6" s="8" t="inlineStr">
         <is>
           <t>01:25:00</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="9" t="n">
         <v>202302000644</v>
       </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E7" s="6" t="inlineStr">
+      <c r="E7" s="8" t="inlineStr">
         <is>
           <t>14/02/2023 17:06</t>
         </is>
       </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G7" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H7" s="7" t="n">
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" s="10" t="n">
         <v>44973.60555555556</v>
       </c>
-      <c r="I7" s="7" t="n">
+      <c r="I7" s="10" t="n">
         <v>44975.63680555556</v>
       </c>
-      <c r="J7" s="6" t="inlineStr">
+      <c r="J7" s="8" t="inlineStr">
         <is>
           <t>SU</t>
         </is>
       </c>
-      <c r="K7" s="6" t="inlineStr">
+      <c r="K7" s="8" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L7" s="6" t="inlineStr">
+      <c r="L7" s="8" t="inlineStr">
         <is>
           <t>TOPOLOGIA VEX CAPITAL</t>
         </is>
       </c>
-      <c r="M7" s="6" t="inlineStr">
+      <c r="M7" s="8" t="inlineStr">
         <is>
           <t>BOA TARDE PREZADOS! FAVOR FAZER A TOPOLOGIA DO CLIENTE VEX CAPITAL VIDEOCONFERENCIA E CLOUD PBX 16 RAMAIS ( 5 APARELHOS E 11 MOBILITY)1 TRIO DE VIDEOCONFERENCIA</t>
         </is>
       </c>
-      <c r="N7" s="6" t="inlineStr">
+      <c r="N7" s="8" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O7" s="6" t="inlineStr">
+      <c r="O7" s="8" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P7" s="6" t="inlineStr">
+      <c r="P7" s="8" t="inlineStr">
         <is>
           <t>N2 DADOS</t>
         </is>
       </c>
-      <c r="Q7" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R7" s="6" t="inlineStr">
+      <c r="Q7" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R7" s="8" t="inlineStr">
         <is>
           <t>FOI CRIADO O DIAGRAMA PARA ATENDER O PROJETO</t>
         </is>
       </c>
-      <c r="S7" s="6" t="inlineStr">
+      <c r="S7" s="8" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T7" s="6" t="inlineStr">
+      <c r="T7" s="8" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" s="6" t="inlineStr">
+      <c r="U7" s="8" t="inlineStr">
         <is>
           <t>03:12:49</t>
         </is>
       </c>
-      <c r="V7" s="6" t="inlineStr">
+      <c r="V7" s="8" t="inlineStr">
         <is>
           <t>03:12:49</t>
         </is>
       </c>
-      <c r="W7" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X7" s="6" t="inlineStr">
+      <c r="W7" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X7" s="8" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y7" s="6" t="inlineStr">
+      <c r="Y7" s="8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="9" t="n">
         <v>202302000650</v>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">   TOPOLOGIA/RELATÓRIO/ANÁLISE DE TOIP</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="E8" s="8" t="inlineStr">
         <is>
           <t>15/02/2023 12:10</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G8" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="n">
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H8" s="10" t="n">
         <v>44981.45694444444</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="I8" s="10" t="n">
         <v>44983.52638888889</v>
       </c>
-      <c r="J8" s="6" t="inlineStr">
+      <c r="J8" s="8" t="inlineStr">
         <is>
           <t>SU</t>
         </is>
       </c>
-      <c r="K8" s="6" t="inlineStr">
+      <c r="K8" s="8" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L8" s="6" t="inlineStr">
+      <c r="L8" s="8" t="inlineStr">
         <is>
           <t>PROJETO TOIP VOTORANTIM</t>
         </is>
       </c>
-      <c r="M8" s="6" t="inlineStr">
+      <c r="M8" s="8" t="inlineStr">
         <is>
           <t>BOA TARDE, FAVOR DESENVOLVER TOPOLOGIA E CADERNO DE REQUISITOS DO NOVO PROJETO DE TOIP DA VOTORANTIM. SEGUE ABAIXO O ESCOPO: 01 GW E1 COM CÉLULA DE SOBREVIVÊNCIA;81 APARELHOS TELEFONICOS DE MODELOS DISTINTOS;INTEGRAÇÃO TOIP/TEAMS (O CLIENTE POSSUI O TEAMS NUM SBC PRÓPRIO, IREMOS INTEGRAR ESSE SBC).</t>
         </is>
       </c>
-      <c r="N8" s="6" t="inlineStr">
+      <c r="N8" s="8" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O8" s="6" t="inlineStr">
+      <c r="O8" s="8" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P8" s="6" t="inlineStr">
+      <c r="P8" s="8" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q8" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R8" s="6" t="inlineStr">
+      <c r="Q8" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R8" s="8" t="inlineStr">
         <is>
           <t>FOI CRIADO O DIAGRAMA E ENCAMINHADO</t>
         </is>
       </c>
-      <c r="S8" s="6" t="inlineStr">
+      <c r="S8" s="8" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T8" s="6" t="inlineStr">
+      <c r="T8" s="8" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U8" s="6" t="inlineStr">
+      <c r="U8" s="8" t="inlineStr">
         <is>
           <t>08:38:26</t>
         </is>
       </c>
-      <c r="V8" s="6" t="inlineStr">
+      <c r="V8" s="8" t="inlineStr">
         <is>
           <t>08:38:26</t>
         </is>
       </c>
-      <c r="W8" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X8" s="6" t="inlineStr">
+      <c r="W8" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X8" s="8" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y8" s="6" t="inlineStr">
+      <c r="Y8" s="8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="9" t="n">
         <v>202302000661</v>
       </c>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D9" s="6" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    BGP INOPERANTE</t>
         </is>
       </c>
-      <c r="E9" s="6" t="inlineStr">
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>15/02/2023 18:44</t>
         </is>
       </c>
-      <c r="F9" s="6" t="inlineStr">
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t>15/02/2023 18:13</t>
         </is>
       </c>
-      <c r="G9" s="6" t="inlineStr">
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>15/02/2023 18:58</t>
         </is>
       </c>
-      <c r="H9" s="6" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr">
         <is>
           <t>15/02/2023 19:55</t>
         </is>
       </c>
-      <c r="I9" s="6" t="inlineStr">
+      <c r="I9" s="8" t="inlineStr">
         <is>
           <t>15/02/2023 19:55</t>
         </is>
       </c>
-      <c r="J9" s="6" t="inlineStr">
+      <c r="J9" s="8" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K9" s="6" t="inlineStr">
+      <c r="K9" s="8" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L9" s="6" t="inlineStr">
+      <c r="L9" s="8" t="inlineStr">
         <is>
           <t>RTD-ROT-NUC-RCE-C01 - BASETELCO - JADAN CENTER</t>
         </is>
       </c>
-      <c r="M9" s="6" t="inlineStr">
+      <c r="M9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">BGP PEER 187.16.216.253 IS DOWN  </t>
         </is>
       </c>
-      <c r="N9" s="6" t="inlineStr">
+      <c r="N9" s="8" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O9" s="6" t="inlineStr">
+      <c r="O9" s="8" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P9" s="6" t="inlineStr">
+      <c r="P9" s="8" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q9" s="6" t="inlineStr">
+      <c r="Q9" s="8" t="inlineStr">
         <is>
           <t>FALHA NA REDE DO FORNECEDOR</t>
         </is>
       </c>
-      <c r="R9" s="6" t="inlineStr">
+      <c r="R9" s="8" t="inlineStr">
         <is>
           <t>CONFORME INFORMAÇÃO DA IX.BR HOUVE UMA OSCILAÇÃO NO ROUTER SERVER 1V4 DELES, APÓS NORMALIZADO NEIGHBOR DO BGP FOI RESTABELECIDO EM NOSSO MONITORAMENTO SEM QUEDAS E PERDAS</t>
         </is>
       </c>
-      <c r="S9" s="6" t="inlineStr">
+      <c r="S9" s="8" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T9" s="6" t="inlineStr">
+      <c r="T9" s="8" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U9" s="6" t="inlineStr">
+      <c r="U9" s="8" t="inlineStr">
         <is>
           <t>01:10:15</t>
         </is>
       </c>
-      <c r="V9" s="6" t="inlineStr">
+      <c r="V9" s="8" t="inlineStr">
         <is>
           <t>01:10:15</t>
         </is>
       </c>
-      <c r="W9" s="6" t="n">
+      <c r="W9" s="8" t="n">
         <v>99819</v>
       </c>
-      <c r="X9" s="6" t="inlineStr">
+      <c r="X9" s="8" t="inlineStr">
         <is>
           <t>NOITE</t>
         </is>
       </c>
-      <c r="Y9" s="6" t="inlineStr">
+      <c r="Y9" s="8" t="inlineStr">
         <is>
           <t>00:45:00</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="5" t="n">
         <v>202302000730</v>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    APROVISIONAMENTO DE AMBIENTE/RAMAIS</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>24/02/2023 17:05</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H10" s="4" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I10" s="4" t="inlineStr">
+      <c r="I10" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="6" t="inlineStr">
         <is>
           <t>SU</t>
         </is>
       </c>
-      <c r="K10" s="4" t="inlineStr">
+      <c r="K10" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L10" s="4" t="inlineStr">
+      <c r="L10" s="6" t="inlineStr">
         <is>
           <t>CADERNO DE PARÂMETROS ELOPAR</t>
         </is>
       </c>
-      <c r="M10" s="4" t="inlineStr">
+      <c r="M10" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE, SEGUE CADERNO DE PARÂMETROS DA ELOPAR PARA APROVISIONAMENTO</t>
         </is>
       </c>
-      <c r="N10" s="4" t="inlineStr">
+      <c r="N10" s="6" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O10" s="4" t="inlineStr">
+      <c r="O10" s="6" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P10" s="4" t="inlineStr">
+      <c r="P10" s="6" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q10" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R10" s="4" t="inlineStr">
+      <c r="Q10" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R10" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S10" s="4" t="inlineStr">
+      <c r="S10" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T10" s="4" t="inlineStr">
+      <c r="T10" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U10" s="4" t="inlineStr">
+      <c r="U10" s="6" t="inlineStr">
         <is>
           <t>02:17:55</t>
         </is>
       </c>
-      <c r="V10" s="4" t="inlineStr">
+      <c r="V10" s="6" t="inlineStr">
         <is>
           <t>02:17:55</t>
         </is>
       </c>
-      <c r="W10" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X10" s="6" t="inlineStr">
+      <c r="W10" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X10" s="8" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y10" s="6" t="inlineStr">
+      <c r="Y10" s="8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="5" t="n">
         <v>202302000735</v>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>25/02/2023 13:26</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
         <is>
           <t>25/02/2023 12:40</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="7" t="n">
         <v>44984.27777777778</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="7" t="n">
         <v>44984.47847222222</v>
       </c>
-      <c r="I11" s="4" t="inlineStr">
+      <c r="I11" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K11" s="4" t="inlineStr">
+      <c r="K11" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L11" s="4" t="inlineStr">
+      <c r="L11" s="6" t="inlineStr">
         <is>
           <t>VD | TRIO-MV-RECIFE-PRESIDÊNCIA-01 - FALHA DE COLETA DA API EM TRIO-MV-RECIFE-01</t>
         </is>
       </c>
-      <c r="M11" s="4" t="inlineStr">
+      <c r="M11" s="6" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=48661&amp;EVENTID=394166755</t>
         </is>
       </c>
-      <c r="N11" s="4" t="inlineStr">
+      <c r="N11" s="6" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O11" s="4" t="inlineStr">
+      <c r="O11" s="6" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P11" s="4" t="inlineStr">
+      <c r="P11" s="6" t="inlineStr">
         <is>
           <t>N1 VÍDEO</t>
         </is>
       </c>
-      <c r="Q11" s="4" t="inlineStr">
+      <c r="Q11" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R11" s="4" t="inlineStr">
+      <c r="R11" s="6" t="inlineStr">
         <is>
           <t>ALARME NORMALIZOU APÓS NORMALIZAÇÃO DO EQUIPAMENTO</t>
         </is>
       </c>
-      <c r="S11" s="4" t="inlineStr">
+      <c r="S11" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T11" s="4" t="inlineStr">
+      <c r="T11" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U11" s="4" t="inlineStr">
+      <c r="U11" s="6" t="inlineStr">
         <is>
           <t>02:16:07</t>
         </is>
       </c>
-      <c r="V11" s="4" t="inlineStr">
+      <c r="V11" s="6" t="inlineStr">
         <is>
           <t>02:16:07</t>
         </is>
       </c>
-      <c r="W11" s="4" t="inlineStr">
+      <c r="W11" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3 564</t>
         </is>
       </c>
-      <c r="X11" s="6" t="inlineStr">
+      <c r="X11" s="8" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y11" s="7" t="n">
+      <c r="Y11" s="10" t="n">
         <v>1.75</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="5" t="n">
         <v>202302000751</v>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="6" t="inlineStr">
         <is>
           <t>27/02/2023 16:09</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G12" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H12" s="4" t="inlineStr">
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I12" s="4" t="inlineStr">
+      <c r="I12" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIA GIULIA </t>
         </is>
       </c>
-      <c r="K12" s="4" t="inlineStr">
+      <c r="K12" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L12" s="4" t="inlineStr">
+      <c r="L12" s="6" t="inlineStr">
         <is>
           <t>LAUDO EQUIPAMENTOS DE VÍDEO</t>
         </is>
       </c>
-      <c r="M12" s="4" t="inlineStr">
+      <c r="M12" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">BOA TARDE. SOLICITO LAUDO DOS EQUIPAMENTOS DE VÍDEO QUE RETORNARAM DO CLIENTE CYRELA.TOMBAMENTOS: 3189, 3212, 3211, 3187, 3213. </t>
         </is>
       </c>
-      <c r="N12" s="4" t="inlineStr">
+      <c r="N12" s="6" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O12" s="4" t="inlineStr">
+      <c r="O12" s="6" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P12" s="4" t="inlineStr">
+      <c r="P12" s="6" t="inlineStr">
         <is>
           <t>N2 VÍDEO</t>
         </is>
       </c>
-      <c r="Q12" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R12" s="4" t="inlineStr">
+      <c r="Q12" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R12" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S12" s="4" t="inlineStr">
+      <c r="S12" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T12" s="4" t="inlineStr">
+      <c r="T12" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U12" s="4" t="inlineStr">
+      <c r="U12" s="6" t="inlineStr">
         <is>
           <t>06:25:37</t>
         </is>
       </c>
-      <c r="V12" s="4" t="inlineStr">
+      <c r="V12" s="6" t="inlineStr">
         <is>
           <t>06:25:37</t>
         </is>
       </c>
-      <c r="W12" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X12" s="6" t="inlineStr">
+      <c r="W12" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X12" s="8" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y12" s="6" t="inlineStr">
+      <c r="Y12" s="8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="5" t="n">
         <v>202302000752</v>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="6" t="inlineStr">
         <is>
           <t>27/02/2023 16:13</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I13" s="4" t="inlineStr">
+      <c r="I13" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIA GIULIA </t>
         </is>
       </c>
-      <c r="K13" s="4" t="inlineStr">
+      <c r="K13" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L13" s="4" t="inlineStr">
+      <c r="L13" s="6" t="inlineStr">
         <is>
           <t>LAUDO EQUIPAMENTOS DE VÍDEO</t>
         </is>
       </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="M13" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE. SOLICITO LAUDO DOS EQUIPAMENTOS DE VÍDEO QUE RETORNARAM DO CLIENTE CYRELA.TOMBAMENTOS: 3216, 3617, 3185, 3181 E (ENDPOINT SEM TOMBAMENTO).</t>
         </is>
       </c>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="N13" s="6" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O13" s="4" t="inlineStr">
+      <c r="O13" s="6" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P13" s="4" t="inlineStr">
+      <c r="P13" s="6" t="inlineStr">
         <is>
           <t>N2 VÍDEO</t>
         </is>
       </c>
-      <c r="Q13" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R13" s="4" t="inlineStr">
+      <c r="Q13" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R13" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S13" s="4" t="inlineStr">
+      <c r="S13" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T13" s="4" t="inlineStr">
+      <c r="T13" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U13" s="4" t="inlineStr">
+      <c r="U13" s="6" t="inlineStr">
         <is>
           <t>06:21:25</t>
         </is>
       </c>
-      <c r="V13" s="4" t="inlineStr">
+      <c r="V13" s="6" t="inlineStr">
         <is>
           <t>06:21:25</t>
         </is>
       </c>
-      <c r="W13" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X13" s="6" t="inlineStr">
+      <c r="W13" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X13" s="8" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y13" s="6" t="inlineStr">
+      <c r="Y13" s="8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="5" t="n">
         <v>202302000774</v>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    APROVISIONAMENTO DE AMBIENTE/RAMAIS</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="6" t="inlineStr">
         <is>
           <t>28/02/2023 15:09</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H14" s="4" t="inlineStr">
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I14" s="4" t="inlineStr">
+      <c r="I14" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="6" t="inlineStr">
         <is>
           <t>SU</t>
         </is>
       </c>
-      <c r="K14" s="4" t="inlineStr">
+      <c r="K14" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L14" s="4" t="inlineStr">
+      <c r="L14" s="6" t="inlineStr">
         <is>
           <t>CADERNO DE PARÂMETROS VEX CAPITAL</t>
         </is>
       </c>
-      <c r="M14" s="4" t="inlineStr">
+      <c r="M14" s="6" t="inlineStr">
         <is>
           <t>FAVOR REALIZAR O APROVISIONAMENTO DOS RAMAIS CLOUD PBX DO CLIENTE VEX.</t>
         </is>
       </c>
-      <c r="N14" s="4" t="inlineStr">
+      <c r="N14" s="6" t="inlineStr">
         <is>
           <t>BASE TELCO</t>
         </is>
       </c>
-      <c r="O14" s="4" t="inlineStr">
+      <c r="O14" s="6" t="inlineStr">
         <is>
           <t>RECIFE</t>
         </is>
       </c>
-      <c r="P14" s="4" t="inlineStr">
+      <c r="P14" s="6" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q14" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R14" s="4" t="inlineStr">
+      <c r="Q14" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R14" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S14" s="4" t="inlineStr">
+      <c r="S14" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T14" s="4" t="inlineStr">
+      <c r="T14" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U14" s="4" t="inlineStr">
+      <c r="U14" s="6" t="inlineStr">
         <is>
           <t>05:59:19</t>
         </is>
       </c>
-      <c r="V14" s="4" t="inlineStr">
+      <c r="V14" s="6" t="inlineStr">
         <is>
           <t>05:59:19</t>
         </is>
       </c>
-      <c r="W14" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X14" s="6" t="inlineStr">
+      <c r="W14" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X14" s="8" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y14" s="6" t="inlineStr">
+      <c r="Y14" s="8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
